--- a/medicine/Pharmacie/Inhibiteur_de_l'anhydrase_carbonique/Inhibiteur_de_l'anhydrase_carbonique.xlsx
+++ b/medicine/Pharmacie/Inhibiteur_de_l'anhydrase_carbonique/Inhibiteur_de_l'anhydrase_carbonique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_l%27anhydrase_carbonique</t>
+          <t>Inhibiteur_de_l'anhydrase_carbonique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les inhibiteurs de l'anhydrase carbonique sont une classe de composés pharmaceutiques qui inhibent l'activité des enzymes anhydrases carboniques. Ils sont utilisés comme agents anti-glaucome, diurétiques, antiépileptiques, dans le traitement du mal des montagnes, des ulcères gastro-duodénaux, des troubles neurologiques ou encore de l'ostéoporose[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inhibiteurs de l'anhydrase carbonique sont une classe de composés pharmaceutiques qui inhibent l'activité des enzymes anhydrases carboniques. Ils sont utilisés comme agents anti-glaucome, diurétiques, antiépileptiques, dans le traitement du mal des montagnes, des ulcères gastro-duodénaux, des troubles neurologiques ou encore de l'ostéoporose.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_l%27anhydrase_carbonique</t>
+          <t>Inhibiteur_de_l'anhydrase_carbonique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,11 @@
           <t>Propriétés pharmacodynamiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il inhibe l'élimination de H+ au niveau du tube contourné distal et proximal (réabsorption de H+). Il inhibe la réabsorption de Na+ sous forme bicarbonate de sodium qui sera éliminé dans les urines de même que le HCO3−. 
-Indications thérapeutiques
-Il est surtout utilisé dans le glaucome (diminution de la sécrétion de l'humeur aqueuse) et pour alcaliniser les urines.
-Il est aussi utilisé dans le cas des hypertensions intracrâniennes (pour diminuer le surplus de liquide céphalo-rachidien (LCR) dans les ventricules situés dans la boîte crânienne) pour, ainsi, uriner cet excédent dû à un déséquilibre entre la production et l'absorption du LCR. Il est utilisé comme diurétique.
 </t>
         </is>
       </c>
@@ -527,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_l%27anhydrase_carbonique</t>
+          <t>Inhibiteur_de_l'anhydrase_carbonique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +553,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Propriétés pharmacodynamiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Indications thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est surtout utilisé dans le glaucome (diminution de la sécrétion de l'humeur aqueuse) et pour alcaliniser les urines.
+Il est aussi utilisé dans le cas des hypertensions intracrâniennes (pour diminuer le surplus de liquide céphalo-rachidien (LCR) dans les ventricules situés dans la boîte crânienne) pour, ainsi, uriner cet excédent dû à un déséquilibre entre la production et l'absorption du LCR. Il est utilisé comme diurétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Inhibiteur_de_l'anhydrase_carbonique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inhibiteur_de_l%27anhydrase_carbonique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>dorzolamide
 acétazolamide
